--- a/Mazda_data.xlsx
+++ b/Mazda_data.xlsx
@@ -13,14 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="Инфо" sheetId="1" r:id="rId1"/>
-    <sheet name="Requests" sheetId="2" r:id="rId2"/>
+    <sheet name="Regions" sheetId="3" r:id="rId2"/>
+    <sheet name="Requests" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regions!$J$1:$K$799</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -575,6 +579,81 @@
   </si>
   <si>
     <t>mazda 6 цена</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Y_Region_ID</t>
+  </si>
+  <si>
+    <t>область</t>
+  </si>
+  <si>
+    <t>Чебоксары</t>
+  </si>
+  <si>
+    <t>Набережные Челны</t>
+  </si>
+  <si>
+    <t>G_Region_ID</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012048&amp;uule=w+CAIQIFISCefrNxq6ZOpDETIfOCHFffnJ</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011981&amp;uule=w+CAIQIFISCVEyA-751VFBEapXloTPwNMo</t>
+  </si>
+  <si>
+    <t>&amp;p=0.0.0.0&amp;tci=p:30000,g:1011969&amp;uule=w+CAIQIFISCcmw1HP8SrVGEUzPV1fM1kQ9</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012040&amp;uule=w+CAIQIFISCe1lSseMN5ZGEf-OhKs_Z8dt</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012029&amp;uule=w+CAIQIFISCdN52CviGGZBEQsDOrupzZW6</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011984&amp;uule=w+CAIQIFISCZdNzJDh5d9CEYXp0-FzBjqb</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012052&amp;uule=w+CAIQIFISCUvbYqDqZcFDESB_VvfXQwLV</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011993&amp;uule=w+CAIQIFISCQvyhtjhxuhDEQ6KergCykqb</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011859&amp;uule=w+CAIQIFISCeEywlX3MxhEETGayHpD7D5A</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011985&amp;uule=w+CAIQIFISCQsJAfbi_apDERqbpmE4w-9e</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012008&amp;uule=w+CAIQIFISCYXUSVK6nLNfETV-lt3UBGcY</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012054&amp;uule=w+CAIQIFISCZnNrHwrrV5BEWWMrbW5d8t_</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012036&amp;uule=w+CAIQIFISCUG8mwUJxxRBEfY1kENWUWgc</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012084&amp;uule=w+CAIQIFISCTm57FGgkbJGEUWFlEQW5slZ</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011905&amp;uule=w+CAIQIFISCbM1RXFkRfBAEba-xFZPeSD3</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012013&amp;uule=w+CAIQIFISCe-2tMN3x-NAEQRNi-RRtEiC</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012073&amp;uule=w+CAIQIFISCTFEV71qeUxBEQLbTXQ3Jxml</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:9040951&amp;uule=w+CAIQIFISCRXpFn3zN1pBEdkR7GF3BnRx</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011874&amp;uule=w+CAIQIFISCY06ShDLksVDEb8RF20qSiLv</t>
   </si>
 </sst>
 </file>
@@ -584,7 +663,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +723,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -750,7 +844,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
@@ -773,6 +867,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -1088,7 +1186,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="D37" sqref="C37:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,13 +2316,2794 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N800"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>11168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>235</v>
+      </c>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>49</v>
+      </c>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>209</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>38</v>
+      </c>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>63</v>
+      </c>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>240</v>
+      </c>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>195</v>
+      </c>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17">
+        <v>236</v>
+      </c>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>1091</v>
+      </c>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <v>973</v>
+      </c>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>55</v>
+      </c>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25">
+        <v>44</v>
+      </c>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27">
+        <v>193</v>
+      </c>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>200</v>
+      </c>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33">
+        <v>62</v>
+      </c>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34">
+        <v>172</v>
+      </c>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36">
+        <v>197</v>
+      </c>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37">
+        <v>48</v>
+      </c>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38">
+        <v>1095</v>
+      </c>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39">
+        <v>64</v>
+      </c>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
+        <v>203</v>
+      </c>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>204</v>
+      </c>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>201</v>
+      </c>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44">
+        <v>46</v>
+      </c>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>205</v>
+      </c>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>206</v>
+      </c>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47">
+        <v>67</v>
+      </c>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48">
+        <v>192</v>
+      </c>
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>208</v>
+      </c>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J53" s="14"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J54" s="14"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J56" s="14"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J57" s="14"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J58" s="14"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J59" s="14"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J60" s="14"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J61" s="14"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J62" s="14"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J63" s="14"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J64" s="14"/>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J65" s="14"/>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J66" s="14"/>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J67" s="14"/>
+    </row>
+    <row r="68" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J68" s="14"/>
+    </row>
+    <row r="69" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J69" s="14"/>
+    </row>
+    <row r="70" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J70" s="14"/>
+      <c r="N70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J71" s="14"/>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J72" s="14"/>
+    </row>
+    <row r="73" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J73" s="14"/>
+    </row>
+    <row r="74" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J74" s="14"/>
+    </row>
+    <row r="75" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J75" s="14"/>
+    </row>
+    <row r="76" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J76" s="14"/>
+    </row>
+    <row r="77" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J77" s="14"/>
+    </row>
+    <row r="78" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J78" s="14"/>
+    </row>
+    <row r="79" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J79" s="14"/>
+    </row>
+    <row r="80" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J80" s="14"/>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J81" s="14"/>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J82" s="14"/>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J83" s="14"/>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J84" s="14"/>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J85" s="14"/>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J86" s="14"/>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J87" s="14"/>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J88" s="14"/>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J89" s="14"/>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J90" s="14"/>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J91" s="14"/>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J92" s="14"/>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J93" s="14"/>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J94" s="14"/>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J95" s="14"/>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J96" s="14"/>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J97" s="14"/>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J98" s="14"/>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J99" s="14"/>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J100" s="14"/>
+    </row>
+    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J101" s="14"/>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J102" s="14"/>
+    </row>
+    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J103" s="14"/>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J104" s="14"/>
+    </row>
+    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J105" s="14"/>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J106" s="14"/>
+    </row>
+    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J107" s="14"/>
+    </row>
+    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J108" s="14"/>
+    </row>
+    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J109" s="14"/>
+    </row>
+    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J110" s="14"/>
+    </row>
+    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J111" s="14"/>
+    </row>
+    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J112" s="14"/>
+    </row>
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J113" s="14"/>
+    </row>
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J114" s="14"/>
+    </row>
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J115" s="14"/>
+    </row>
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J116" s="14"/>
+    </row>
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J117" s="14"/>
+    </row>
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J118" s="14"/>
+    </row>
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J119" s="14"/>
+    </row>
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J120" s="14"/>
+    </row>
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J121" s="14"/>
+    </row>
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J122" s="14"/>
+    </row>
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J123" s="14"/>
+    </row>
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J124" s="14"/>
+    </row>
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J125" s="14"/>
+    </row>
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J126" s="14"/>
+    </row>
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J127" s="14"/>
+    </row>
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J128" s="14"/>
+    </row>
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J129" s="14"/>
+    </row>
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J130" s="14"/>
+    </row>
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J131" s="14"/>
+    </row>
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J132" s="14"/>
+    </row>
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J133" s="14"/>
+    </row>
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J134" s="14"/>
+    </row>
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J135" s="14"/>
+    </row>
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J136" s="14"/>
+    </row>
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J137" s="14"/>
+    </row>
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J138" s="14"/>
+    </row>
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J139" s="14"/>
+    </row>
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J140" s="14"/>
+    </row>
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J141" s="14"/>
+    </row>
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J142" s="14"/>
+    </row>
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J143" s="14"/>
+    </row>
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J144" s="14"/>
+    </row>
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J145" s="14"/>
+    </row>
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J146" s="14"/>
+    </row>
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J147" s="14"/>
+    </row>
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J148" s="14"/>
+    </row>
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J149" s="14"/>
+    </row>
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J150" s="14"/>
+    </row>
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J151" s="14"/>
+    </row>
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J152" s="14"/>
+    </row>
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J153" s="14"/>
+    </row>
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J154" s="14"/>
+    </row>
+    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J155" s="14"/>
+    </row>
+    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J156" s="14"/>
+    </row>
+    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J157" s="14"/>
+    </row>
+    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J158" s="14"/>
+    </row>
+    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J159" s="14"/>
+    </row>
+    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J160" s="14"/>
+    </row>
+    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J161" s="14"/>
+    </row>
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J162" s="14"/>
+    </row>
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J163" s="14"/>
+    </row>
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J164" s="14"/>
+    </row>
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J165" s="14"/>
+    </row>
+    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J166" s="14"/>
+    </row>
+    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J167" s="14"/>
+    </row>
+    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J168" s="14"/>
+    </row>
+    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J169" s="14"/>
+    </row>
+    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J170" s="14"/>
+    </row>
+    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J171" s="14"/>
+    </row>
+    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J172" s="14"/>
+    </row>
+    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J173" s="14"/>
+    </row>
+    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J174" s="14"/>
+    </row>
+    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J175" s="14"/>
+    </row>
+    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J176" s="14"/>
+    </row>
+    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J177" s="14"/>
+    </row>
+    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J178" s="14"/>
+    </row>
+    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J179" s="14"/>
+    </row>
+    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J180" s="14"/>
+    </row>
+    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J181" s="14"/>
+    </row>
+    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J182" s="14"/>
+    </row>
+    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J183" s="14"/>
+    </row>
+    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J184" s="14"/>
+    </row>
+    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J185" s="14"/>
+    </row>
+    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J186" s="14"/>
+    </row>
+    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J187" s="14"/>
+    </row>
+    <row r="188" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J188" s="14"/>
+    </row>
+    <row r="189" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J189" s="14"/>
+    </row>
+    <row r="190" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J190" s="14"/>
+    </row>
+    <row r="191" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J191" s="14"/>
+    </row>
+    <row r="192" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J192" s="14"/>
+    </row>
+    <row r="193" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J193" s="14"/>
+    </row>
+    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J194" s="14"/>
+    </row>
+    <row r="195" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J195" s="14"/>
+    </row>
+    <row r="196" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J196" s="14"/>
+    </row>
+    <row r="197" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J197" s="14"/>
+    </row>
+    <row r="198" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J198" s="14"/>
+    </row>
+    <row r="199" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J199" s="14"/>
+    </row>
+    <row r="200" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J200" s="14"/>
+    </row>
+    <row r="201" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J201" s="14"/>
+    </row>
+    <row r="202" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J202" s="14"/>
+    </row>
+    <row r="203" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J203" s="14"/>
+    </row>
+    <row r="204" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J204" s="14"/>
+    </row>
+    <row r="205" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J205" s="14"/>
+    </row>
+    <row r="206" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J206" s="14"/>
+    </row>
+    <row r="207" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J207" s="14"/>
+    </row>
+    <row r="208" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J208" s="14"/>
+    </row>
+    <row r="209" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J209" s="14"/>
+    </row>
+    <row r="210" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J210" s="14"/>
+    </row>
+    <row r="211" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J211" s="14"/>
+    </row>
+    <row r="212" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J212" s="14"/>
+    </row>
+    <row r="213" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J213" s="14"/>
+    </row>
+    <row r="214" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J214" s="14"/>
+    </row>
+    <row r="215" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J215" s="14"/>
+    </row>
+    <row r="216" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J216" s="14"/>
+    </row>
+    <row r="217" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J217" s="14"/>
+    </row>
+    <row r="218" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J218" s="14"/>
+    </row>
+    <row r="219" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J219" s="14"/>
+    </row>
+    <row r="220" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J220" s="14"/>
+    </row>
+    <row r="221" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J221" s="14"/>
+    </row>
+    <row r="222" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J222" s="14"/>
+    </row>
+    <row r="223" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J223" s="14"/>
+    </row>
+    <row r="224" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J224" s="14"/>
+    </row>
+    <row r="225" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J225" s="14"/>
+    </row>
+    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J226" s="14"/>
+    </row>
+    <row r="227" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J227" s="14"/>
+    </row>
+    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J228" s="14"/>
+    </row>
+    <row r="229" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J229" s="14"/>
+    </row>
+    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J230" s="14"/>
+    </row>
+    <row r="231" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J231" s="14"/>
+    </row>
+    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J232" s="14"/>
+    </row>
+    <row r="233" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J233" s="14"/>
+    </row>
+    <row r="234" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J234" s="14"/>
+    </row>
+    <row r="235" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J235" s="14"/>
+    </row>
+    <row r="236" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J236" s="14"/>
+    </row>
+    <row r="237" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J237" s="14"/>
+    </row>
+    <row r="238" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J238" s="14"/>
+    </row>
+    <row r="239" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J239" s="14"/>
+    </row>
+    <row r="240" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J240" s="14"/>
+    </row>
+    <row r="241" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J241" s="14"/>
+    </row>
+    <row r="242" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J242" s="14"/>
+    </row>
+    <row r="243" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J243" s="14"/>
+    </row>
+    <row r="244" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J244" s="14"/>
+    </row>
+    <row r="245" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J245" s="14"/>
+    </row>
+    <row r="246" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J246" s="14"/>
+    </row>
+    <row r="247" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J247" s="14"/>
+    </row>
+    <row r="248" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J248" s="14"/>
+    </row>
+    <row r="249" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J249" s="14"/>
+    </row>
+    <row r="250" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J250" s="14"/>
+    </row>
+    <row r="251" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J251" s="14"/>
+    </row>
+    <row r="252" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J252" s="14"/>
+    </row>
+    <row r="253" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J253" s="14"/>
+    </row>
+    <row r="254" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J254" s="14"/>
+    </row>
+    <row r="255" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J255" s="14"/>
+    </row>
+    <row r="256" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J256" s="14"/>
+    </row>
+    <row r="257" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J257" s="14"/>
+    </row>
+    <row r="258" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J258" s="14"/>
+    </row>
+    <row r="259" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J259" s="14"/>
+    </row>
+    <row r="260" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J260" s="14"/>
+    </row>
+    <row r="261" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J261" s="14"/>
+    </row>
+    <row r="262" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J262" s="14"/>
+    </row>
+    <row r="263" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J263" s="14"/>
+    </row>
+    <row r="264" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J264" s="14"/>
+    </row>
+    <row r="265" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J265" s="14"/>
+    </row>
+    <row r="266" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J266" s="14"/>
+    </row>
+    <row r="267" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J267" s="14"/>
+    </row>
+    <row r="268" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J268" s="14"/>
+    </row>
+    <row r="269" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J269" s="14"/>
+    </row>
+    <row r="270" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J270" s="14"/>
+    </row>
+    <row r="271" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J271" s="14"/>
+    </row>
+    <row r="272" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J272" s="14"/>
+    </row>
+    <row r="273" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J273" s="14"/>
+    </row>
+    <row r="274" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J274" s="14"/>
+    </row>
+    <row r="275" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J275" s="14"/>
+    </row>
+    <row r="276" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J276" s="14"/>
+    </row>
+    <row r="277" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J277" s="14"/>
+    </row>
+    <row r="278" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J278" s="14"/>
+    </row>
+    <row r="279" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J279" s="14"/>
+    </row>
+    <row r="280" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J280" s="14"/>
+    </row>
+    <row r="281" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J281" s="14"/>
+    </row>
+    <row r="282" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J282" s="14"/>
+    </row>
+    <row r="283" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J283" s="14"/>
+    </row>
+    <row r="284" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J284" s="14"/>
+    </row>
+    <row r="285" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J285" s="14"/>
+    </row>
+    <row r="286" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J286" s="14"/>
+    </row>
+    <row r="287" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J287" s="14"/>
+    </row>
+    <row r="288" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J288" s="14"/>
+    </row>
+    <row r="289" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J289" s="14"/>
+    </row>
+    <row r="290" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J290" s="14"/>
+    </row>
+    <row r="291" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J291" s="14"/>
+    </row>
+    <row r="292" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J292" s="14"/>
+    </row>
+    <row r="293" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J293" s="14"/>
+    </row>
+    <row r="294" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J294" s="14"/>
+    </row>
+    <row r="295" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J295" s="14"/>
+    </row>
+    <row r="296" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J296" s="14"/>
+    </row>
+    <row r="297" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J297" s="14"/>
+    </row>
+    <row r="298" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J298" s="14"/>
+    </row>
+    <row r="299" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J299" s="14"/>
+    </row>
+    <row r="300" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J300" s="14"/>
+    </row>
+    <row r="301" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J301" s="14"/>
+    </row>
+    <row r="302" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J302" s="14"/>
+    </row>
+    <row r="303" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J303" s="14"/>
+    </row>
+    <row r="304" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J304" s="14"/>
+    </row>
+    <row r="305" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J305" s="14"/>
+    </row>
+    <row r="306" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J306" s="14"/>
+    </row>
+    <row r="307" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J307" s="14"/>
+    </row>
+    <row r="308" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J308" s="14"/>
+    </row>
+    <row r="309" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J309" s="14"/>
+    </row>
+    <row r="310" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J310" s="14"/>
+    </row>
+    <row r="311" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J311" s="14"/>
+    </row>
+    <row r="312" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J312" s="14"/>
+    </row>
+    <row r="313" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J313" s="14"/>
+    </row>
+    <row r="314" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J314" s="14"/>
+    </row>
+    <row r="315" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J315" s="14"/>
+    </row>
+    <row r="316" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J316" s="14"/>
+    </row>
+    <row r="317" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J317" s="14"/>
+    </row>
+    <row r="318" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J318" s="14"/>
+    </row>
+    <row r="319" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J319" s="14"/>
+    </row>
+    <row r="320" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J320" s="14"/>
+    </row>
+    <row r="321" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J321" s="14"/>
+    </row>
+    <row r="322" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J322" s="14"/>
+    </row>
+    <row r="323" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J323" s="14"/>
+    </row>
+    <row r="324" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J324" s="14"/>
+    </row>
+    <row r="325" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J325" s="14"/>
+    </row>
+    <row r="326" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J326" s="14"/>
+    </row>
+    <row r="327" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J327" s="14"/>
+    </row>
+    <row r="328" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J328" s="14"/>
+    </row>
+    <row r="329" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J329" s="14"/>
+    </row>
+    <row r="330" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J330" s="14"/>
+    </row>
+    <row r="331" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J331" s="14"/>
+    </row>
+    <row r="332" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J332" s="14"/>
+    </row>
+    <row r="333" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J333" s="14"/>
+    </row>
+    <row r="334" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J334" s="14"/>
+    </row>
+    <row r="335" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J335" s="14"/>
+    </row>
+    <row r="336" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J336" s="14"/>
+    </row>
+    <row r="337" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J337" s="14"/>
+    </row>
+    <row r="338" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J338" s="14"/>
+    </row>
+    <row r="339" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J339" s="14"/>
+    </row>
+    <row r="340" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J340" s="14"/>
+    </row>
+    <row r="341" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J341" s="14"/>
+    </row>
+    <row r="342" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J342" s="14"/>
+    </row>
+    <row r="343" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J343" s="14"/>
+    </row>
+    <row r="344" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J344" s="14"/>
+    </row>
+    <row r="345" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J345" s="14"/>
+    </row>
+    <row r="346" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J346" s="14"/>
+    </row>
+    <row r="347" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J347" s="14"/>
+    </row>
+    <row r="348" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J348" s="14"/>
+    </row>
+    <row r="349" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J349" s="14"/>
+    </row>
+    <row r="350" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J350" s="14"/>
+    </row>
+    <row r="351" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J351" s="14"/>
+    </row>
+    <row r="352" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J352" s="14"/>
+    </row>
+    <row r="353" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J353" s="14"/>
+    </row>
+    <row r="354" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J354" s="14"/>
+    </row>
+    <row r="355" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J355" s="14"/>
+    </row>
+    <row r="356" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J356" s="14"/>
+    </row>
+    <row r="357" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J357" s="14"/>
+    </row>
+    <row r="358" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J358" s="14"/>
+    </row>
+    <row r="359" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J359" s="14"/>
+    </row>
+    <row r="360" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J360" s="14"/>
+    </row>
+    <row r="361" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J361" s="14"/>
+    </row>
+    <row r="362" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J362" s="14"/>
+    </row>
+    <row r="363" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J363" s="14"/>
+    </row>
+    <row r="364" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J364" s="14"/>
+    </row>
+    <row r="365" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J365" s="14"/>
+    </row>
+    <row r="366" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J366" s="14"/>
+    </row>
+    <row r="367" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J367" s="14"/>
+    </row>
+    <row r="368" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J368" s="14"/>
+    </row>
+    <row r="369" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J369" s="14"/>
+    </row>
+    <row r="370" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J370" s="14"/>
+    </row>
+    <row r="371" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J371" s="14"/>
+    </row>
+    <row r="372" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J372" s="14"/>
+    </row>
+    <row r="373" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J373" s="14"/>
+    </row>
+    <row r="374" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J374" s="14"/>
+    </row>
+    <row r="375" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J375" s="14"/>
+    </row>
+    <row r="376" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J376" s="14"/>
+    </row>
+    <row r="377" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J377" s="14"/>
+    </row>
+    <row r="378" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J378" s="14"/>
+    </row>
+    <row r="379" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J379" s="14"/>
+    </row>
+    <row r="380" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J380" s="14"/>
+    </row>
+    <row r="381" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J381" s="14"/>
+    </row>
+    <row r="382" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J382" s="14"/>
+    </row>
+    <row r="383" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J383" s="14"/>
+    </row>
+    <row r="384" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J384" s="14"/>
+    </row>
+    <row r="385" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J385" s="14"/>
+    </row>
+    <row r="386" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J386" s="14"/>
+    </row>
+    <row r="387" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J387" s="14"/>
+    </row>
+    <row r="388" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J388" s="14"/>
+    </row>
+    <row r="389" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J389" s="14"/>
+    </row>
+    <row r="390" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J390" s="14"/>
+    </row>
+    <row r="391" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J391" s="14"/>
+    </row>
+    <row r="392" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J392" s="14"/>
+    </row>
+    <row r="393" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J393" s="14"/>
+    </row>
+    <row r="394" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J394" s="14"/>
+    </row>
+    <row r="395" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J395" s="14"/>
+    </row>
+    <row r="396" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J396" s="14"/>
+    </row>
+    <row r="397" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J397" s="14"/>
+    </row>
+    <row r="398" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J398" s="14"/>
+    </row>
+    <row r="399" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J399" s="14"/>
+    </row>
+    <row r="400" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J400" s="14"/>
+    </row>
+    <row r="401" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J401" s="14"/>
+    </row>
+    <row r="402" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J402" s="14"/>
+    </row>
+    <row r="403" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J403" s="14"/>
+    </row>
+    <row r="404" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J404" s="14"/>
+    </row>
+    <row r="405" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J405" s="14"/>
+    </row>
+    <row r="406" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J406" s="14"/>
+    </row>
+    <row r="407" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J407" s="14"/>
+    </row>
+    <row r="408" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J408" s="14"/>
+    </row>
+    <row r="409" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J409" s="14"/>
+    </row>
+    <row r="410" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J410" s="14"/>
+    </row>
+    <row r="411" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J411" s="14"/>
+    </row>
+    <row r="412" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J412" s="14"/>
+    </row>
+    <row r="413" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J413" s="14"/>
+    </row>
+    <row r="414" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J414" s="14"/>
+    </row>
+    <row r="415" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J415" s="14"/>
+    </row>
+    <row r="416" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J416" s="14"/>
+    </row>
+    <row r="417" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J417" s="14"/>
+    </row>
+    <row r="418" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J418" s="14"/>
+    </row>
+    <row r="419" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J419" s="14"/>
+    </row>
+    <row r="420" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J420" s="14"/>
+    </row>
+    <row r="421" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J421" s="14"/>
+    </row>
+    <row r="422" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J422" s="14"/>
+    </row>
+    <row r="423" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J423" s="14"/>
+    </row>
+    <row r="424" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J424" s="14"/>
+    </row>
+    <row r="425" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J425" s="14"/>
+    </row>
+    <row r="426" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J426" s="14"/>
+    </row>
+    <row r="427" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J427" s="14"/>
+    </row>
+    <row r="428" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J428" s="14"/>
+    </row>
+    <row r="429" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J429" s="14"/>
+    </row>
+    <row r="430" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J430" s="14"/>
+    </row>
+    <row r="431" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J431" s="14"/>
+    </row>
+    <row r="432" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J432" s="14"/>
+    </row>
+    <row r="433" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J433" s="14"/>
+    </row>
+    <row r="434" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J434" s="14"/>
+    </row>
+    <row r="435" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J435" s="14"/>
+    </row>
+    <row r="436" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J436" s="14"/>
+    </row>
+    <row r="437" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J437" s="14"/>
+    </row>
+    <row r="438" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J438" s="14"/>
+    </row>
+    <row r="439" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J439" s="14"/>
+    </row>
+    <row r="440" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J440" s="14"/>
+    </row>
+    <row r="441" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J441" s="14"/>
+    </row>
+    <row r="442" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J442" s="14"/>
+    </row>
+    <row r="443" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J443" s="14"/>
+    </row>
+    <row r="444" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J444" s="14"/>
+    </row>
+    <row r="445" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J445" s="14"/>
+    </row>
+    <row r="446" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J446" s="14"/>
+    </row>
+    <row r="447" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J447" s="14"/>
+    </row>
+    <row r="448" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J448" s="14"/>
+    </row>
+    <row r="449" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J449" s="14"/>
+    </row>
+    <row r="450" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J450" s="14"/>
+    </row>
+    <row r="451" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J451" s="14"/>
+    </row>
+    <row r="452" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J452" s="14"/>
+    </row>
+    <row r="453" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J453" s="14"/>
+    </row>
+    <row r="454" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J454" s="14"/>
+    </row>
+    <row r="455" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J455" s="14"/>
+    </row>
+    <row r="456" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J456" s="14"/>
+    </row>
+    <row r="457" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J457" s="14"/>
+    </row>
+    <row r="458" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J458" s="14"/>
+    </row>
+    <row r="459" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J459" s="14"/>
+    </row>
+    <row r="460" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J460" s="14"/>
+    </row>
+    <row r="461" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J461" s="14"/>
+    </row>
+    <row r="462" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J462" s="14"/>
+    </row>
+    <row r="463" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J463" s="14"/>
+    </row>
+    <row r="464" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J464" s="14"/>
+    </row>
+    <row r="465" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J465" s="14"/>
+    </row>
+    <row r="466" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J466" s="14"/>
+    </row>
+    <row r="467" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J467" s="14"/>
+    </row>
+    <row r="468" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J468" s="14"/>
+    </row>
+    <row r="469" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J469" s="14"/>
+    </row>
+    <row r="470" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J470" s="14"/>
+    </row>
+    <row r="471" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J471" s="14"/>
+    </row>
+    <row r="472" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J472" s="14"/>
+    </row>
+    <row r="473" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J473" s="14"/>
+    </row>
+    <row r="474" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J474" s="14"/>
+    </row>
+    <row r="475" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J475" s="14"/>
+    </row>
+    <row r="476" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J476" s="14"/>
+    </row>
+    <row r="477" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J477" s="14"/>
+    </row>
+    <row r="478" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J478" s="14"/>
+    </row>
+    <row r="479" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J479" s="14"/>
+    </row>
+    <row r="480" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J480" s="14"/>
+    </row>
+    <row r="481" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J481" s="14"/>
+    </row>
+    <row r="482" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J482" s="14"/>
+    </row>
+    <row r="483" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J483" s="14"/>
+    </row>
+    <row r="484" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J484" s="14"/>
+    </row>
+    <row r="485" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J485" s="14"/>
+    </row>
+    <row r="486" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J486" s="14"/>
+    </row>
+    <row r="487" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J487" s="14"/>
+    </row>
+    <row r="488" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J488" s="14"/>
+    </row>
+    <row r="489" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J489" s="14"/>
+    </row>
+    <row r="490" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J490" s="14"/>
+    </row>
+    <row r="491" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J491" s="14"/>
+    </row>
+    <row r="492" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J492" s="14"/>
+    </row>
+    <row r="493" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J493" s="14"/>
+    </row>
+    <row r="494" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J494" s="14"/>
+    </row>
+    <row r="495" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J495" s="14"/>
+    </row>
+    <row r="496" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J496" s="14"/>
+    </row>
+    <row r="497" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J497" s="14"/>
+    </row>
+    <row r="498" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J498" s="14"/>
+    </row>
+    <row r="499" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J499" s="14"/>
+    </row>
+    <row r="500" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J500" s="14"/>
+    </row>
+    <row r="501" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J501" s="14"/>
+    </row>
+    <row r="502" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J502" s="14"/>
+    </row>
+    <row r="503" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J503" s="14"/>
+    </row>
+    <row r="504" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J504" s="14"/>
+    </row>
+    <row r="505" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J505" s="14"/>
+    </row>
+    <row r="506" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J506" s="14"/>
+    </row>
+    <row r="507" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J507" s="14"/>
+    </row>
+    <row r="508" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J508" s="14"/>
+    </row>
+    <row r="509" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J509" s="14"/>
+    </row>
+    <row r="510" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J510" s="14"/>
+    </row>
+    <row r="511" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J511" s="14"/>
+    </row>
+    <row r="512" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J512" s="14"/>
+    </row>
+    <row r="513" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J513" s="14"/>
+    </row>
+    <row r="514" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J514" s="14"/>
+    </row>
+    <row r="515" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J515" s="14"/>
+    </row>
+    <row r="516" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J516" s="14"/>
+    </row>
+    <row r="517" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J517" s="14"/>
+    </row>
+    <row r="518" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J518" s="14"/>
+    </row>
+    <row r="519" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J519" s="14"/>
+    </row>
+    <row r="520" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J520" s="14"/>
+    </row>
+    <row r="521" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J521" s="14"/>
+    </row>
+    <row r="522" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J522" s="14"/>
+    </row>
+    <row r="523" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J523" s="14"/>
+    </row>
+    <row r="524" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J524" s="14"/>
+    </row>
+    <row r="525" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J525" s="14"/>
+    </row>
+    <row r="526" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J526" s="14"/>
+    </row>
+    <row r="527" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J527" s="14"/>
+    </row>
+    <row r="528" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J528" s="14"/>
+    </row>
+    <row r="529" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J529" s="14"/>
+    </row>
+    <row r="530" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J530" s="14"/>
+    </row>
+    <row r="531" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J531" s="14"/>
+    </row>
+    <row r="532" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J532" s="14"/>
+    </row>
+    <row r="533" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J533" s="14"/>
+    </row>
+    <row r="534" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J534" s="14"/>
+    </row>
+    <row r="535" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J535" s="14"/>
+    </row>
+    <row r="536" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J536" s="14"/>
+    </row>
+    <row r="537" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J537" s="14"/>
+    </row>
+    <row r="538" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J538" s="14"/>
+    </row>
+    <row r="539" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J539" s="14"/>
+    </row>
+    <row r="540" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J540" s="14"/>
+    </row>
+    <row r="541" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J541" s="14"/>
+    </row>
+    <row r="542" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J542" s="14"/>
+    </row>
+    <row r="543" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J543" s="14"/>
+    </row>
+    <row r="544" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J544" s="14"/>
+    </row>
+    <row r="545" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J545" s="14"/>
+    </row>
+    <row r="546" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J546" s="14"/>
+    </row>
+    <row r="547" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J547" s="14"/>
+    </row>
+    <row r="548" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J548" s="14"/>
+    </row>
+    <row r="549" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J549" s="14"/>
+    </row>
+    <row r="550" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J550" s="14"/>
+    </row>
+    <row r="551" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J551" s="14"/>
+    </row>
+    <row r="552" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J552" s="14"/>
+    </row>
+    <row r="553" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J553" s="14"/>
+    </row>
+    <row r="554" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J554" s="14"/>
+    </row>
+    <row r="555" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J555" s="14"/>
+    </row>
+    <row r="556" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J556" s="14"/>
+    </row>
+    <row r="557" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J557" s="14"/>
+    </row>
+    <row r="558" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J558" s="14"/>
+    </row>
+    <row r="559" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J559" s="14"/>
+    </row>
+    <row r="560" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J560" s="14"/>
+    </row>
+    <row r="561" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J561" s="14"/>
+    </row>
+    <row r="562" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J562" s="14"/>
+    </row>
+    <row r="563" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J563" s="14"/>
+    </row>
+    <row r="564" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J564" s="14"/>
+    </row>
+    <row r="565" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J565" s="14"/>
+    </row>
+    <row r="566" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J566" s="14"/>
+    </row>
+    <row r="567" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J567" s="14"/>
+    </row>
+    <row r="568" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J568" s="14"/>
+    </row>
+    <row r="569" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J569" s="14"/>
+    </row>
+    <row r="570" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J570" s="14"/>
+    </row>
+    <row r="571" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J571" s="14"/>
+    </row>
+    <row r="572" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J572" s="14"/>
+    </row>
+    <row r="573" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J573" s="14"/>
+    </row>
+    <row r="574" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J574" s="14"/>
+    </row>
+    <row r="575" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J575" s="14"/>
+    </row>
+    <row r="576" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J576" s="14"/>
+    </row>
+    <row r="577" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J577" s="14"/>
+    </row>
+    <row r="578" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J578" s="14"/>
+    </row>
+    <row r="579" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J579" s="14"/>
+    </row>
+    <row r="580" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J580" s="14"/>
+    </row>
+    <row r="581" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J581" s="14"/>
+    </row>
+    <row r="582" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J582" s="14"/>
+    </row>
+    <row r="583" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J583" s="14"/>
+    </row>
+    <row r="584" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J584" s="14"/>
+    </row>
+    <row r="585" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J585" s="14"/>
+    </row>
+    <row r="586" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J586" s="14"/>
+    </row>
+    <row r="587" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J587" s="14"/>
+    </row>
+    <row r="588" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J588" s="14"/>
+    </row>
+    <row r="589" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J589" s="14"/>
+    </row>
+    <row r="590" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J590" s="14"/>
+    </row>
+    <row r="591" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J591" s="14"/>
+    </row>
+    <row r="592" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J592" s="14"/>
+    </row>
+    <row r="593" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J593" s="14"/>
+    </row>
+    <row r="594" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J594" s="14"/>
+    </row>
+    <row r="595" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J595" s="14"/>
+    </row>
+    <row r="596" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J596" s="14"/>
+    </row>
+    <row r="597" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J597" s="14"/>
+    </row>
+    <row r="598" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J598" s="14"/>
+    </row>
+    <row r="599" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J599" s="14"/>
+    </row>
+    <row r="600" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J600" s="14"/>
+    </row>
+    <row r="601" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J601" s="14"/>
+    </row>
+    <row r="602" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J602" s="14"/>
+    </row>
+    <row r="603" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J603" s="14"/>
+    </row>
+    <row r="604" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J604" s="14"/>
+    </row>
+    <row r="605" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J605" s="14"/>
+    </row>
+    <row r="606" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J606" s="14"/>
+    </row>
+    <row r="607" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J607" s="14"/>
+    </row>
+    <row r="608" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J608" s="14"/>
+    </row>
+    <row r="609" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J609" s="14"/>
+    </row>
+    <row r="610" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J610" s="14"/>
+    </row>
+    <row r="611" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J611" s="14"/>
+    </row>
+    <row r="612" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J612" s="14"/>
+    </row>
+    <row r="613" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J613" s="14"/>
+    </row>
+    <row r="614" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J614" s="14"/>
+    </row>
+    <row r="615" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J615" s="14"/>
+    </row>
+    <row r="616" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J616" s="14"/>
+    </row>
+    <row r="617" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J617" s="14"/>
+    </row>
+    <row r="618" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J618" s="14"/>
+    </row>
+    <row r="619" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J619" s="14"/>
+    </row>
+    <row r="620" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J620" s="14"/>
+    </row>
+    <row r="621" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J621" s="14"/>
+    </row>
+    <row r="622" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J622" s="14"/>
+    </row>
+    <row r="623" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J623" s="14"/>
+    </row>
+    <row r="624" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J624" s="14"/>
+    </row>
+    <row r="625" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J625" s="14"/>
+    </row>
+    <row r="626" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J626" s="14"/>
+    </row>
+    <row r="627" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J627" s="14"/>
+    </row>
+    <row r="628" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J628" s="14"/>
+    </row>
+    <row r="629" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J629" s="14"/>
+    </row>
+    <row r="630" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J630" s="14"/>
+    </row>
+    <row r="631" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J631" s="14"/>
+    </row>
+    <row r="632" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J632" s="14"/>
+    </row>
+    <row r="633" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J633" s="14"/>
+    </row>
+    <row r="634" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J634" s="14"/>
+    </row>
+    <row r="635" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J635" s="14"/>
+    </row>
+    <row r="636" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J636" s="14"/>
+    </row>
+    <row r="637" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J637" s="14"/>
+    </row>
+    <row r="638" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J638" s="14"/>
+    </row>
+    <row r="639" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J639" s="14"/>
+    </row>
+    <row r="640" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J640" s="14"/>
+    </row>
+    <row r="641" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J641" s="14"/>
+    </row>
+    <row r="642" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J642" s="14"/>
+    </row>
+    <row r="643" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J643" s="14"/>
+    </row>
+    <row r="644" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J644" s="14"/>
+    </row>
+    <row r="645" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J645" s="14"/>
+    </row>
+    <row r="646" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J646" s="14"/>
+    </row>
+    <row r="647" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J647" s="14"/>
+    </row>
+    <row r="648" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J648" s="14"/>
+    </row>
+    <row r="649" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J649" s="14"/>
+    </row>
+    <row r="650" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J650" s="14"/>
+    </row>
+    <row r="651" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J651" s="14"/>
+    </row>
+    <row r="652" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J652" s="14"/>
+    </row>
+    <row r="653" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J653" s="14"/>
+    </row>
+    <row r="654" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J654" s="14"/>
+    </row>
+    <row r="655" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J655" s="14"/>
+    </row>
+    <row r="656" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J656" s="14"/>
+    </row>
+    <row r="657" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J657" s="14"/>
+    </row>
+    <row r="658" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J658" s="14"/>
+    </row>
+    <row r="659" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J659" s="14"/>
+    </row>
+    <row r="660" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J660" s="14"/>
+    </row>
+    <row r="661" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J661" s="14"/>
+    </row>
+    <row r="662" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J662" s="14"/>
+    </row>
+    <row r="663" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J663" s="14"/>
+    </row>
+    <row r="664" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J664" s="14"/>
+    </row>
+    <row r="665" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J665" s="14"/>
+    </row>
+    <row r="666" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J666" s="14"/>
+    </row>
+    <row r="667" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J667" s="14"/>
+    </row>
+    <row r="668" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J668" s="14"/>
+    </row>
+    <row r="669" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J669" s="14"/>
+    </row>
+    <row r="670" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J670" s="14"/>
+    </row>
+    <row r="671" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J671" s="14"/>
+    </row>
+    <row r="672" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J672" s="14"/>
+    </row>
+    <row r="673" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J673" s="14"/>
+    </row>
+    <row r="674" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J674" s="14"/>
+    </row>
+    <row r="675" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J675" s="14"/>
+    </row>
+    <row r="676" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J676" s="14"/>
+    </row>
+    <row r="677" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J677" s="14"/>
+    </row>
+    <row r="678" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J678" s="14"/>
+    </row>
+    <row r="679" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J679" s="14"/>
+    </row>
+    <row r="680" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J680" s="14"/>
+    </row>
+    <row r="681" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J681" s="14"/>
+    </row>
+    <row r="682" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J682" s="14"/>
+    </row>
+    <row r="683" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J683" s="14"/>
+    </row>
+    <row r="684" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J684" s="14"/>
+    </row>
+    <row r="685" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J685" s="14"/>
+    </row>
+    <row r="686" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J686" s="14"/>
+    </row>
+    <row r="687" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J687" s="14"/>
+    </row>
+    <row r="688" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J688" s="14"/>
+    </row>
+    <row r="689" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J689" s="14"/>
+    </row>
+    <row r="690" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J690" s="14"/>
+    </row>
+    <row r="691" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J691" s="14"/>
+    </row>
+    <row r="692" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J692" s="14"/>
+    </row>
+    <row r="693" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J693" s="14"/>
+    </row>
+    <row r="694" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J694" s="14"/>
+    </row>
+    <row r="695" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J695" s="14"/>
+    </row>
+    <row r="696" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J696" s="14"/>
+    </row>
+    <row r="697" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J697" s="14"/>
+    </row>
+    <row r="698" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J698" s="14"/>
+    </row>
+    <row r="699" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J699" s="14"/>
+    </row>
+    <row r="700" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J700" s="14"/>
+    </row>
+    <row r="701" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J701" s="14"/>
+    </row>
+    <row r="702" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J702" s="14"/>
+    </row>
+    <row r="703" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J703" s="14"/>
+    </row>
+    <row r="704" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J704" s="14"/>
+    </row>
+    <row r="705" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J705" s="14"/>
+    </row>
+    <row r="706" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J706" s="14"/>
+    </row>
+    <row r="707" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J707" s="14"/>
+    </row>
+    <row r="708" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J708" s="14"/>
+    </row>
+    <row r="709" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J709" s="14"/>
+    </row>
+    <row r="710" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J710" s="14"/>
+    </row>
+    <row r="711" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J711" s="14"/>
+    </row>
+    <row r="712" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J712" s="14"/>
+    </row>
+    <row r="713" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J713" s="14"/>
+    </row>
+    <row r="714" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J714" s="14"/>
+    </row>
+    <row r="715" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J715" s="14"/>
+    </row>
+    <row r="716" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J716" s="14"/>
+    </row>
+    <row r="717" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J717" s="14"/>
+    </row>
+    <row r="718" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J718" s="14"/>
+    </row>
+    <row r="719" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J719" s="14"/>
+    </row>
+    <row r="720" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J720" s="14"/>
+    </row>
+    <row r="721" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J721" s="14"/>
+    </row>
+    <row r="722" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J722" s="14"/>
+    </row>
+    <row r="723" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J723" s="14"/>
+    </row>
+    <row r="724" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J724" s="14"/>
+    </row>
+    <row r="725" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J725" s="14"/>
+    </row>
+    <row r="726" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J726" s="14"/>
+    </row>
+    <row r="727" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J727" s="14"/>
+    </row>
+    <row r="728" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J728" s="14"/>
+    </row>
+    <row r="729" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J729" s="14"/>
+    </row>
+    <row r="730" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J730" s="14"/>
+    </row>
+    <row r="731" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J731" s="14"/>
+    </row>
+    <row r="732" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J732" s="14"/>
+    </row>
+    <row r="733" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J733" s="14"/>
+    </row>
+    <row r="734" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J734" s="14"/>
+    </row>
+    <row r="735" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J735" s="14"/>
+    </row>
+    <row r="736" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J736" s="14"/>
+    </row>
+    <row r="737" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J737" s="14"/>
+    </row>
+    <row r="738" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J738" s="14"/>
+    </row>
+    <row r="739" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J739" s="14"/>
+    </row>
+    <row r="740" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J740" s="14"/>
+    </row>
+    <row r="741" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J741" s="14"/>
+    </row>
+    <row r="742" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J742" s="14"/>
+    </row>
+    <row r="743" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J743" s="14"/>
+    </row>
+    <row r="744" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J744" s="14"/>
+    </row>
+    <row r="745" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J745" s="14"/>
+    </row>
+    <row r="746" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J746" s="14"/>
+    </row>
+    <row r="747" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J747" s="14"/>
+    </row>
+    <row r="748" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J748" s="14"/>
+    </row>
+    <row r="749" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J749" s="14"/>
+    </row>
+    <row r="750" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J750" s="14"/>
+    </row>
+    <row r="751" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J751" s="14"/>
+    </row>
+    <row r="752" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J752" s="14"/>
+    </row>
+    <row r="753" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J753" s="14"/>
+    </row>
+    <row r="754" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J754" s="14"/>
+    </row>
+    <row r="755" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J755" s="14"/>
+    </row>
+    <row r="756" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J756" s="14"/>
+    </row>
+    <row r="757" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J757" s="14"/>
+    </row>
+    <row r="758" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J758" s="14"/>
+    </row>
+    <row r="759" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J759" s="14"/>
+    </row>
+    <row r="760" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J760" s="14"/>
+    </row>
+    <row r="761" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J761" s="14"/>
+    </row>
+    <row r="762" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J762" s="14"/>
+    </row>
+    <row r="763" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J763" s="14"/>
+    </row>
+    <row r="764" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J764" s="14"/>
+    </row>
+    <row r="765" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J765" s="14"/>
+    </row>
+    <row r="766" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J766" s="14"/>
+    </row>
+    <row r="767" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J767" s="14"/>
+    </row>
+    <row r="768" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J768" s="14"/>
+    </row>
+    <row r="769" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J769" s="14"/>
+    </row>
+    <row r="770" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J770" s="14"/>
+    </row>
+    <row r="771" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J771" s="14"/>
+    </row>
+    <row r="772" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J772" s="14"/>
+    </row>
+    <row r="773" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J773" s="14"/>
+    </row>
+    <row r="774" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J774" s="14"/>
+    </row>
+    <row r="775" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J775" s="14"/>
+    </row>
+    <row r="776" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J776" s="14"/>
+    </row>
+    <row r="777" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J777" s="14"/>
+    </row>
+    <row r="778" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J778" s="14"/>
+    </row>
+    <row r="779" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J779" s="14"/>
+    </row>
+    <row r="780" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J780" s="14"/>
+    </row>
+    <row r="781" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J781" s="14"/>
+    </row>
+    <row r="782" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J782" s="14"/>
+    </row>
+    <row r="783" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J783" s="14"/>
+    </row>
+    <row r="784" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J784" s="14"/>
+    </row>
+    <row r="785" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J785" s="14"/>
+    </row>
+    <row r="786" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J786" s="14"/>
+    </row>
+    <row r="787" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J787" s="14"/>
+    </row>
+    <row r="788" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J788" s="14"/>
+    </row>
+    <row r="789" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J789" s="14"/>
+    </row>
+    <row r="790" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J790" s="14"/>
+    </row>
+    <row r="791" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J791" s="14"/>
+    </row>
+    <row r="792" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J792" s="14"/>
+    </row>
+    <row r="793" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J793" s="14"/>
+    </row>
+    <row r="794" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J794" s="14"/>
+    </row>
+    <row r="795" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J795" s="14"/>
+    </row>
+    <row r="796" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J796" s="14"/>
+    </row>
+    <row r="797" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J797" s="14"/>
+    </row>
+    <row r="798" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J798" s="14"/>
+    </row>
+    <row r="799" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J799" s="14"/>
+    </row>
+    <row r="800" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J800" s="14"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C50">
+    <sortCondition ref="C2:C50"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mazda_data.xlsx
+++ b/Mazda_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="238">
   <si>
     <t>ID</t>
   </si>
@@ -587,9 +587,6 @@
     <t>Y_Region_ID</t>
   </si>
   <si>
-    <t>область</t>
-  </si>
-  <si>
     <t>Чебоксары</t>
   </si>
   <si>
@@ -605,9 +602,6 @@
     <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011981&amp;uule=w+CAIQIFISCVEyA-751VFBEapXloTPwNMo</t>
   </si>
   <si>
-    <t>&amp;p=0.0.0.0&amp;tci=p:30000,g:1011969&amp;uule=w+CAIQIFISCcmw1HP8SrVGEUzPV1fM1kQ9</t>
-  </si>
-  <si>
     <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012040&amp;uule=w+CAIQIFISCe1lSseMN5ZGEf-OhKs_Z8dt</t>
   </si>
   <si>
@@ -654,6 +648,96 @@
   </si>
   <si>
     <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011874&amp;uule=w+CAIQIFISCY06ShDLksVDEb8RF20qSiLv</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011969&amp;uule=w+CAIQIFISCcmw1HP8SrVGEUzPV1fM1kQ9</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012060&amp;uule=w+CAIQIFISCf3BMe2EPzRBEUWRo0xd4qej</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011881&amp;uule=w+CAIQIFISCU8u-aSTJdFDEWiAgmVJV7jc</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011996&amp;uule=w+CAIQIFISCdHwCqRiAEFBEQGpy6HsbO26</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011935&amp;uule=w+CAIQIFISCecfv9c97KFGEdSFBJrYsJ3k</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011976&amp;uule=w+CAIQIFISCdUiDO0wEDREEaUhw8swusaY</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012068&amp;uule=w+CAIQIFISCWd2W7h1MwVBEUHaV86cFw2I</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012032&amp;uule=w+CAIQIFISCRXOzADoeGhBEWoJDbEnaVUP</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011896&amp;uule=w+CAIQIFISCWX24lPTOqhdEU7p2FYUzdYx</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012067&amp;uule=w+CAIQIFISCfWzQo9fNl1BEeQbCUcI_1Ih</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012061&amp;uule=w+CAIQIFISCfOUbB2rh7ZGEZy8M_SVOiv0</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012055&amp;uule=w+CAIQIFISCXXc94c-HuBDERBY48SScT6g</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011923&amp;uule=w+CAIQIFISCYdW0DOpPm1DES1U-tdrIRHW</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011924&amp;uule=w+CAIQIFISCU2VTxlzl3NDEUfxAZJ4oB0j</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011928&amp;uule=w+CAIQIFISCTkwuXj8uTRBEUIu4M03RFjL</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012062&amp;uule=w+CAIQIFISCce4o1Fd4btDEZNnoypqexOb</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011914&amp;uule=w+CAIQIFISCakhfEuNPeNGEdNuEhYAllBQ</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012064&amp;uule=w+CAIQIFISCbErjhQgOeFDEVLhl4Ak6-Gn</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012077&amp;uule=w+CAIQIFISCRPodOhcLztBEb1ip_sOTNlI</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011947&amp;uule=w+CAIQIFISCRmlSiWMFDpBEcpN6r329PVZ</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012017&amp;uule=w+CAIQIFISCZ_IERds4klBEUcZCu7dyuA-</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011868&amp;uule=w+CAIQIFISCWNYXC30aiZBEUlGQo0T0s_E</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011941&amp;uule=w+CAIQIFISCeM3_6HJr9dcEf9H1o9G4ZfV</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011867&amp;uule=w+CAIQIFISCeG8FpIlOtlDEcyS2h6SwO6s</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011853&amp;uule=w+CAIQIFISCavuLsfood1CEQO1h43vu-ew</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011987&amp;uule=w+CAIQIFISCZXUX5mw93tBEaPWAHKg2NsA</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011926&amp;uule=w+CAIQIFISCUO4Ky24IixdEXD9VEfCc3IZ</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011909&amp;uule=w+CAIQIFISCY_vMcC5C9hCEU42cYqxtGW_</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1011925&amp;uule=w+CAIQIFISCcF4DqmA9vxDEWfgP8JVIyhr</t>
+  </si>
+  <si>
+    <t>&amp;ip=0.0.0.0&amp;tci=p:30000,g:1012059&amp;uule=w+CAIQIFISCRtMXbaykyZDES_nipgd8QvP</t>
   </si>
 </sst>
 </file>
@@ -844,7 +928,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
@@ -871,6 +955,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -2316,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N800"/>
+  <dimension ref="A1:J800"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,7 +2423,7 @@
         <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J1" s="14"/>
     </row>
@@ -2350,7 +2435,7 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J2" s="14"/>
     </row>
@@ -2362,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J3" s="14"/>
     </row>
@@ -2374,7 +2459,7 @@
         <v>11168</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J4" s="14"/>
     </row>
@@ -2386,7 +2471,7 @@
         <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="J5" s="14"/>
     </row>
@@ -2397,6 +2482,9 @@
       <c r="B6">
         <v>15</v>
       </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2406,6 +2494,9 @@
       <c r="B7">
         <v>235</v>
       </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2415,6 +2506,9 @@
       <c r="B8">
         <v>49</v>
       </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2425,7 +2519,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J9" s="14"/>
     </row>
@@ -2437,7 +2531,7 @@
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J10" s="14"/>
     </row>
@@ -2448,6 +2542,9 @@
       <c r="B11">
         <v>18</v>
       </c>
+      <c r="C11" t="s">
+        <v>212</v>
+      </c>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2457,6 +2554,9 @@
       <c r="B12">
         <v>23</v>
       </c>
+      <c r="C12" t="s">
+        <v>213</v>
+      </c>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2466,6 +2566,9 @@
       <c r="B13">
         <v>38</v>
       </c>
+      <c r="C13" t="s">
+        <v>214</v>
+      </c>
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2475,6 +2578,9 @@
       <c r="B14">
         <v>63</v>
       </c>
+      <c r="C14" t="s">
+        <v>216</v>
+      </c>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2484,6 +2590,9 @@
       <c r="B15">
         <v>240</v>
       </c>
+      <c r="C15" t="s">
+        <v>215</v>
+      </c>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2493,14 +2602,20 @@
       <c r="B16">
         <v>195</v>
       </c>
+      <c r="C16" t="s">
+        <v>217</v>
+      </c>
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17">
         <v>236</v>
+      </c>
+      <c r="C17" t="s">
+        <v>219</v>
       </c>
       <c r="J17" s="14"/>
     </row>
@@ -2511,6 +2626,9 @@
       <c r="B18">
         <v>14</v>
       </c>
+      <c r="C18" t="s">
+        <v>218</v>
+      </c>
       <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2520,6 +2638,9 @@
       <c r="B19">
         <v>1091</v>
       </c>
+      <c r="C19" t="s">
+        <v>220</v>
+      </c>
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2530,7 +2651,7 @@
         <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J20" s="14"/>
     </row>
@@ -2541,6 +2662,9 @@
       <c r="B21">
         <v>973</v>
       </c>
+      <c r="C21" t="s">
+        <v>221</v>
+      </c>
       <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2550,6 +2674,9 @@
       <c r="B22">
         <v>6</v>
       </c>
+      <c r="C22" t="s">
+        <v>222</v>
+      </c>
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2559,6 +2686,9 @@
       <c r="B23">
         <v>55</v>
       </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2568,6 +2698,9 @@
       <c r="B24">
         <v>22</v>
       </c>
+      <c r="C24" t="s">
+        <v>224</v>
+      </c>
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2577,6 +2710,9 @@
       <c r="B25">
         <v>44</v>
       </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2587,7 +2723,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J26" s="14"/>
     </row>
@@ -2598,6 +2734,9 @@
       <c r="B27">
         <v>193</v>
       </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
       <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2607,6 +2746,9 @@
       <c r="B28">
         <v>9</v>
       </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
       <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2617,127 +2759,151 @@
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="16" t="s">
         <v>96</v>
       </c>
       <c r="B30">
         <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B31">
         <v>11</v>
       </c>
+      <c r="C31" t="s">
+        <v>228</v>
+      </c>
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
+      <c r="C32" t="s">
+        <v>229</v>
+      </c>
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B33">
         <v>62</v>
       </c>
+      <c r="C33" t="s">
+        <v>230</v>
+      </c>
       <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="16" t="s">
         <v>113</v>
       </c>
       <c r="B34">
         <v>172</v>
       </c>
+      <c r="C34" t="s">
+        <v>231</v>
+      </c>
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="16" t="s">
         <v>115</v>
       </c>
       <c r="B35">
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="16" t="s">
         <v>118</v>
       </c>
       <c r="B36">
         <v>197</v>
       </c>
+      <c r="C36" t="s">
+        <v>232</v>
+      </c>
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B37">
         <v>48</v>
       </c>
+      <c r="C37" t="s">
+        <v>233</v>
+      </c>
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="16" t="s">
         <v>130</v>
       </c>
       <c r="B38">
         <v>1095</v>
       </c>
+      <c r="C38" t="s">
+        <v>234</v>
+      </c>
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="16" t="s">
         <v>133</v>
       </c>
       <c r="B39">
         <v>64</v>
       </c>
+      <c r="C39" t="s">
+        <v>235</v>
+      </c>
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="16" t="s">
         <v>136</v>
       </c>
       <c r="B40">
         <v>194</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="16" t="s">
         <v>139</v>
       </c>
       <c r="B41">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J41" s="14"/>
     </row>
@@ -2749,7 +2915,7 @@
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J42" s="14"/>
     </row>
@@ -2761,7 +2927,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J43" s="14"/>
     </row>
@@ -2772,6 +2938,9 @@
       <c r="B44">
         <v>46</v>
       </c>
+      <c r="C44" t="s">
+        <v>236</v>
+      </c>
       <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2782,7 +2951,7 @@
         <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J45" s="14"/>
     </row>
@@ -2794,7 +2963,7 @@
         <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J46" s="14"/>
     </row>
@@ -2805,6 +2974,9 @@
       <c r="B47">
         <v>67</v>
       </c>
+      <c r="C47" t="s">
+        <v>237</v>
+      </c>
       <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2815,19 +2987,19 @@
         <v>192</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B49">
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J49" s="14"/>
     </row>
@@ -2876,55 +3048,52 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J64" s="14"/>
     </row>
-    <row r="65" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" s="14"/>
     </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J66" s="14"/>
     </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="14"/>
     </row>
-    <row r="68" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J68" s="14"/>
     </row>
-    <row r="69" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" s="14"/>
     </row>
-    <row r="70" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J70" s="14"/>
-      <c r="N70" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="10:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J71" s="14"/>
     </row>
-    <row r="72" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J72" s="14"/>
     </row>
-    <row r="73" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J73" s="14"/>
     </row>
-    <row r="74" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J74" s="14"/>
     </row>
-    <row r="75" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J75" s="14"/>
     </row>
-    <row r="76" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J76" s="14"/>
     </row>
-    <row r="77" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J77" s="14"/>
     </row>
-    <row r="78" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J78" s="14"/>
     </row>
-    <row r="79" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J79" s="14"/>
     </row>
-    <row r="80" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J80" s="14"/>
     </row>
     <row r="81" spans="10:10" x14ac:dyDescent="0.25">
